--- a/SHARED FOLDER/VICE MAYOR AGNES TOLENTINO -LEAVE FILE.xlsx
+++ b/SHARED FOLDER/VICE MAYOR AGNES TOLENTINO -LEAVE FILE.xlsx
@@ -1,27 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26501"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\SHARED FOLDER\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\SHARED FOLDER\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3ACCB51-5058-4DB5-848B-845549FF1CA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="VICE MAYOR MARCH 10-12 2023" sheetId="12" r:id="rId1"/>
     <sheet name="VICE MAYOR JULY 11-13 2023" sheetId="13" r:id="rId2"/>
+    <sheet name="VICE MAYOR JULY 11-13 2023 (2)" sheetId="14" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="98">
   <si>
     <t>Civil Service Form</t>
   </si>
@@ -263,9 +263,6 @@
   </si>
   <si>
     <t>3.DATE OF FILING - 3/7/2023</t>
-  </si>
-  <si>
-    <t>3.DATE OF FILING - 7/3/2023</t>
   </si>
   <si>
     <r>
@@ -310,12 +307,63 @@
   <si>
     <t>As of   June 2023</t>
   </si>
+  <si>
+    <t>3.DATE OF FILING - 10/24/2023</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">5. SALARY </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Php 108,196.00</t>
+    </r>
+  </si>
+  <si>
+    <t>As of   October 2023</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Abroad (Specify)  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CANADA</t>
+    </r>
+  </si>
+  <si>
+    <t>FIVE (5) DAYS</t>
+  </si>
+  <si>
+    <t>3.DATE OF FILING - 11/09/2023</t>
+  </si>
+  <si>
+    <t>NOVEMBER  23 &amp; 30,  2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5VL</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -441,6 +489,31 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -595,7 +668,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -657,6 +730,8 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -684,12 +759,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -701,27 +770,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -746,6 +794,33 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -822,12 +897,32 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -866,7 +961,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F92DB437-8827-44CF-AA11-57C9B60688A6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F92DB437-8827-44CF-AA11-57C9B60688A6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -916,7 +1011,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DCA79C1-AFE1-4C21-9798-72F278DED162}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8DCA79C1-AFE1-4C21-9798-72F278DED162}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -974,7 +1069,7 @@
         <xdr:cNvPr id="4" name="Rectangle 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4E5EA30-B126-4810-8BCD-78714AEEF906}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E4E5EA30-B126-4810-8BCD-78714AEEF906}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1032,7 +1127,7 @@
         <xdr:cNvPr id="5" name="Rectangle 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D86E307-3064-4C24-BF95-239D6748979F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7D86E307-3064-4C24-BF95-239D6748979F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1090,7 +1185,7 @@
         <xdr:cNvPr id="6" name="Rectangle 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B64FE39-73CA-428C-A7F1-A5DB65E8723C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5B64FE39-73CA-428C-A7F1-A5DB65E8723C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1148,7 +1243,7 @@
         <xdr:cNvPr id="7" name="Rectangle 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6184715A-8887-4345-88DD-90A29B6BAF59}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6184715A-8887-4345-88DD-90A29B6BAF59}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1206,7 +1301,7 @@
         <xdr:cNvPr id="8" name="Rectangle 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0842D3E3-6414-49E4-91CF-B289F2F2D254}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0842D3E3-6414-49E4-91CF-B289F2F2D254}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1264,7 +1359,7 @@
         <xdr:cNvPr id="9" name="Rectangle 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B016FF45-836A-43A5-B0E6-279BFA5FEC97}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B016FF45-836A-43A5-B0E6-279BFA5FEC97}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1322,7 +1417,7 @@
         <xdr:cNvPr id="10" name="Rectangle 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F014E59-FC02-425B-A967-5D9A6B5555DA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1F014E59-FC02-425B-A967-5D9A6B5555DA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1380,7 +1475,7 @@
         <xdr:cNvPr id="11" name="Rectangle 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7593AC15-CECC-4232-8092-0EAEF92AD4FA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7593AC15-CECC-4232-8092-0EAEF92AD4FA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1438,7 +1533,7 @@
         <xdr:cNvPr id="12" name="Rectangle 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F3B4503-835F-4D5D-A631-5C62DA8DE6DA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7F3B4503-835F-4D5D-A631-5C62DA8DE6DA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1496,7 +1591,7 @@
         <xdr:cNvPr id="13" name="Rectangle 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{344F0414-8E72-469E-AB17-538F1FAB348D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{344F0414-8E72-469E-AB17-538F1FAB348D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1554,7 +1649,7 @@
         <xdr:cNvPr id="14" name="Rectangle 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{185935EE-8B76-4AA0-ACB5-09005925B476}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{185935EE-8B76-4AA0-ACB5-09005925B476}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1612,7 +1707,7 @@
         <xdr:cNvPr id="15" name="Rectangle 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71958699-994A-4497-AE18-CB874FDAE692}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{71958699-994A-4497-AE18-CB874FDAE692}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1670,7 +1765,7 @@
         <xdr:cNvPr id="16" name="Rectangle 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD4D9BDD-7430-41FA-BE57-8A96FF39FBAD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AD4D9BDD-7430-41FA-BE57-8A96FF39FBAD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1728,7 +1823,7 @@
         <xdr:cNvPr id="17" name="Rectangle 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97CA96CC-06DD-402A-9460-B21E37C75B00}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{97CA96CC-06DD-402A-9460-B21E37C75B00}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1786,7 +1881,7 @@
         <xdr:cNvPr id="18" name="Rectangle 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5FC35080-FF17-46BF-8DF1-D5F74D12479F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5FC35080-FF17-46BF-8DF1-D5F74D12479F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1844,7 +1939,7 @@
         <xdr:cNvPr id="19" name="Rectangle 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70198F9E-86E0-4EFE-BCB9-79BE9CE0D2FA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{70198F9E-86E0-4EFE-BCB9-79BE9CE0D2FA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1902,7 +1997,7 @@
         <xdr:cNvPr id="20" name="Rectangle 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{396F0041-55EB-4F6E-B600-258DF73AF719}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{396F0041-55EB-4F6E-B600-258DF73AF719}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1960,7 +2055,7 @@
         <xdr:cNvPr id="21" name="Rectangle 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E9C943D-DD07-432B-BCCB-D2FF8AB599AA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6E9C943D-DD07-432B-BCCB-D2FF8AB599AA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2018,7 +2113,7 @@
         <xdr:cNvPr id="22" name="Rectangle 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F19876D4-ADA9-4105-91B6-F9CF60EA329B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F19876D4-ADA9-4105-91B6-F9CF60EA329B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2076,7 +2171,7 @@
         <xdr:cNvPr id="23" name="Rectangle 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFD1204D-0949-49D8-89AD-B3828CE16486}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AFD1204D-0949-49D8-89AD-B3828CE16486}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2137,7 +2232,7 @@
         <xdr:cNvPr id="24" name="Rectangle 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A85AF431-5EFA-40F6-BDE3-825D6D393138}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A85AF431-5EFA-40F6-BDE3-825D6D393138}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2195,7 +2290,7 @@
         <xdr:cNvPr id="25" name="Rectangle 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B54D5A79-13C0-4ACD-B0E1-0E043FBC1CA0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B54D5A79-13C0-4ACD-B0E1-0E043FBC1CA0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2253,7 +2348,7 @@
         <xdr:cNvPr id="26" name="Rectangle 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72BE3D97-682E-49DE-A863-716AFA4A5D90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{72BE3D97-682E-49DE-A863-716AFA4A5D90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2311,7 +2406,7 @@
         <xdr:cNvPr id="27" name="Rectangle 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F8027FE-F8A3-40AD-A29E-CF601273DC9E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8F8027FE-F8A3-40AD-A29E-CF601273DC9E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2369,7 +2464,7 @@
         <xdr:cNvPr id="28" name="TextBox 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8F81853-DA60-43C4-8AE9-1EF2E8C04E19}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E8F81853-DA60-43C4-8AE9-1EF2E8C04E19}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2433,7 +2528,7 @@
         <xdr:cNvPr id="29" name="TextBox 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6049B5DC-BA72-44C4-ACB9-5E3597A16301}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6049B5DC-BA72-44C4-ACB9-5E3597A16301}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2502,7 +2597,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A91EBE3-9C4D-4B0F-98C6-7CC1E9B2A49A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9A91EBE3-9C4D-4B0F-98C6-7CC1E9B2A49A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2552,7 +2647,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87405E61-C724-45A9-B946-EC9766EEED13}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{87405E61-C724-45A9-B946-EC9766EEED13}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2610,7 +2705,7 @@
         <xdr:cNvPr id="4" name="Rectangle 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99CE75D9-5669-45AB-90D5-79964C3A4C9F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{99CE75D9-5669-45AB-90D5-79964C3A4C9F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2668,7 +2763,7 @@
         <xdr:cNvPr id="5" name="Rectangle 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88DE4281-E5E7-48C5-A53D-E2837686D6AF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{88DE4281-E5E7-48C5-A53D-E2837686D6AF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2726,7 +2821,7 @@
         <xdr:cNvPr id="6" name="Rectangle 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F980C50-3499-493A-BD62-0B3FF09EE307}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0F980C50-3499-493A-BD62-0B3FF09EE307}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2784,7 +2879,7 @@
         <xdr:cNvPr id="7" name="Rectangle 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6FBB581F-2485-41A1-A5C7-06EB0551A526}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6FBB581F-2485-41A1-A5C7-06EB0551A526}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2842,7 +2937,7 @@
         <xdr:cNvPr id="8" name="Rectangle 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA43A651-BCB6-473A-BDEF-F465FEA6BFF4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FA43A651-BCB6-473A-BDEF-F465FEA6BFF4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2900,7 +2995,7 @@
         <xdr:cNvPr id="9" name="Rectangle 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E6A9521-7B9D-4526-BDE5-4518EE03604E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5E6A9521-7B9D-4526-BDE5-4518EE03604E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2958,7 +3053,7 @@
         <xdr:cNvPr id="10" name="Rectangle 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0105ABCD-96A9-4450-8AE3-84AEDA9614BF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0105ABCD-96A9-4450-8AE3-84AEDA9614BF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3016,7 +3111,7 @@
         <xdr:cNvPr id="11" name="Rectangle 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE7A6724-42BB-4BA0-B2E2-DFFB27C3250C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FE7A6724-42BB-4BA0-B2E2-DFFB27C3250C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3074,7 +3169,7 @@
         <xdr:cNvPr id="12" name="Rectangle 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7AC4D197-79F8-4BC2-8D0D-3B03D35E1EAB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7AC4D197-79F8-4BC2-8D0D-3B03D35E1EAB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3132,7 +3227,7 @@
         <xdr:cNvPr id="13" name="Rectangle 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F710A7C-0D5A-4F0E-B4BB-3965E90E39C4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3F710A7C-0D5A-4F0E-B4BB-3965E90E39C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3190,7 +3285,7 @@
         <xdr:cNvPr id="14" name="Rectangle 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67F0D127-9AD7-40B6-8152-12338ADD6E3C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{67F0D127-9AD7-40B6-8152-12338ADD6E3C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3248,7 +3343,7 @@
         <xdr:cNvPr id="15" name="Rectangle 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D332CC12-4878-4EC5-846F-EDDFCE25E7DF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D332CC12-4878-4EC5-846F-EDDFCE25E7DF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3306,7 +3401,7 @@
         <xdr:cNvPr id="16" name="Rectangle 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82D69AF6-F8BA-444D-8F9D-B1AF9B6EB3C9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{82D69AF6-F8BA-444D-8F9D-B1AF9B6EB3C9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3364,7 +3459,7 @@
         <xdr:cNvPr id="17" name="Rectangle 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD413C44-EBED-4A58-95DA-E42F467A8ECE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AD413C44-EBED-4A58-95DA-E42F467A8ECE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3422,7 +3517,7 @@
         <xdr:cNvPr id="18" name="Rectangle 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD7DAAB1-BF09-404C-BFF5-A2D066794BB1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AD7DAAB1-BF09-404C-BFF5-A2D066794BB1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3480,7 +3575,7 @@
         <xdr:cNvPr id="19" name="Rectangle 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C10BE647-DEF1-4E37-9090-6DECD26817C4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C10BE647-DEF1-4E37-9090-6DECD26817C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3538,7 +3633,7 @@
         <xdr:cNvPr id="20" name="Rectangle 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F67B00ED-598F-4811-9756-9A70D4FCF45E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F67B00ED-598F-4811-9756-9A70D4FCF45E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3596,7 +3691,7 @@
         <xdr:cNvPr id="21" name="Rectangle 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDFF860D-EFD9-4B64-B23D-4DD4DC121C36}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EDFF860D-EFD9-4B64-B23D-4DD4DC121C36}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3654,7 +3749,7 @@
         <xdr:cNvPr id="22" name="Rectangle 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9F12503-B612-4280-B144-306FE3E96576}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F9F12503-B612-4280-B144-306FE3E96576}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3712,7 +3807,7 @@
         <xdr:cNvPr id="23" name="Rectangle 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50D9EDC9-4545-40EC-9853-24B6FF629C8F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{50D9EDC9-4545-40EC-9853-24B6FF629C8F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3773,7 +3868,7 @@
         <xdr:cNvPr id="24" name="Rectangle 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F5639F4-EB42-44C8-9D6A-0F52712641D6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3F5639F4-EB42-44C8-9D6A-0F52712641D6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3831,7 +3926,7 @@
         <xdr:cNvPr id="25" name="Rectangle 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56AC2E0C-F49C-4957-A3E1-5793992FBBE6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{56AC2E0C-F49C-4957-A3E1-5793992FBBE6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3889,7 +3984,7 @@
         <xdr:cNvPr id="26" name="Rectangle 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B39F1861-57A3-48B8-AE51-B355E606BF19}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B39F1861-57A3-48B8-AE51-B355E606BF19}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3947,7 +4042,7 @@
         <xdr:cNvPr id="27" name="Rectangle 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72598DC6-4B23-4546-9ED0-F03CBB7A7469}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{72598DC6-4B23-4546-9ED0-F03CBB7A7469}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4005,7 +4100,7 @@
         <xdr:cNvPr id="28" name="TextBox 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{337F2685-BE99-4C70-A334-EC303478A669}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{337F2685-BE99-4C70-A334-EC303478A669}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4069,7 +4164,7 @@
         <xdr:cNvPr id="29" name="TextBox 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FCFC8BB-F4F1-43A6-A13F-46CD68143AEC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3FCFC8BB-F4F1-43A6-A13F-46CD68143AEC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4118,10 +4213,1646 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>240846</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>104386</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>361678</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>115272</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{87FC7D4C-2E6D-4A3C-9066-A074F5BE8379}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1955346" y="287266"/>
+          <a:ext cx="730432" cy="696686"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>102995</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>78969</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>258231</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>215382</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rectangle 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{75053BBD-B189-497F-BBF2-42C81F64EE2E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="102995" y="3782289"/>
+          <a:ext cx="155236" cy="136413"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>101116</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>31844</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>256352</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>168257</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rectangle 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E2470F41-639D-4C88-BACC-E1A50529AEB7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="101116" y="4055204"/>
+          <a:ext cx="155236" cy="136413"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>97129</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>34637</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>252365</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>171050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Rectangle 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7FC0F45E-D527-4F6D-8FD4-B9FCAAA60A4A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="97129" y="4240877"/>
+          <a:ext cx="155236" cy="136413"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>56784</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>250486</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>193197</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Rectangle 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D04A5F93-F8F5-45C6-9779-ACE7B2F4245B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="95250" y="4445904"/>
+          <a:ext cx="155236" cy="136413"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>97130</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>21647</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>252366</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>158060</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Rectangle 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3CA5D01F-5346-40EA-96C1-B8020A6B3479}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="97130" y="4776527"/>
+          <a:ext cx="155236" cy="136413"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>95251</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>26477</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>250487</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>162890</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Rectangle 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8C117F4E-EF4E-4FF8-B77A-0714601A53EA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="95251" y="4964237"/>
+          <a:ext cx="155236" cy="136413"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>97129</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>25976</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>252365</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>162389</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Rectangle 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{339EBC1E-CA97-40D5-A3D6-10B92438E500}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="97129" y="5276156"/>
+          <a:ext cx="155236" cy="136413"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>52455</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>250486</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>188868</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Rectangle 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BF3DB970-9C85-4166-A570-8E217C5AC01D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="95250" y="5485515"/>
+          <a:ext cx="155236" cy="136413"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>97129</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>30306</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>252365</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>166719</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Rectangle 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1C10C796-5D27-409F-A82B-EA3F45AB3CF1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="97129" y="5783406"/>
+          <a:ext cx="155236" cy="136413"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>99580</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>35137</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>254816</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>171550</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Rectangle 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0F25F908-1289-49D0-8884-B86E9F2867BC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="99580" y="6100657"/>
+          <a:ext cx="155236" cy="136413"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>100446</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>36002</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>255682</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>172415</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="Rectangle 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8E99A1C2-5A2C-4149-AB47-E2B4BAB5C315}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="100446" y="6368222"/>
+          <a:ext cx="155236" cy="136413"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>244078</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>399314</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>160225</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="Rectangle 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0E0D19A0-E24D-4CA5-9A82-786469BF56B2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4396978" y="3033712"/>
+          <a:ext cx="155236" cy="136413"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>244078</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>17859</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>399314</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>154272</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="Rectangle 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{53AD781E-3FE8-4231-9782-5BE281EA187B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4396978" y="3355419"/>
+          <a:ext cx="155236" cy="136413"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>244078</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>23813</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>399314</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>160226</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="Rectangle 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32C54BFB-AF4A-4876-BEB7-D11AC888EF61}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4396978" y="4047173"/>
+          <a:ext cx="155236" cy="136413"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>244078</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>399314</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>184038</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="Rectangle 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7F5AE836-B9C4-4F73-8C0E-088AEB080AF1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4396978" y="4253865"/>
+          <a:ext cx="155236" cy="136413"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>226219</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>59531</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>381455</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>195944</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="Rectangle 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{33E6DA17-D369-43F0-AC4F-563F626AE978}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4379119" y="5492591"/>
+          <a:ext cx="155236" cy="136413"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>226218</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>35718</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>381454</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>172131</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="Rectangle 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{42701539-3CAB-4DC7-BFA8-C522D8F3D926}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4379118" y="5788818"/>
+          <a:ext cx="155236" cy="136413"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>226218</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>23813</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>381454</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>160226</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="Rectangle 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{53782BE4-7EB3-4BF0-8A4F-532AB925BBFA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4379118" y="6356033"/>
+          <a:ext cx="155236" cy="136413"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>227603</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>43058</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>382839</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>179471</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="Rectangle 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1E5C546B-C23D-40CE-BD3F-3179F1832D37}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4380503" y="6558158"/>
+          <a:ext cx="155236" cy="136413"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>226218</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>29766</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>381454</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>166179</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="Rectangle 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1E9F1E19-FDBA-42C6-A973-A6394FB5F6C7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4379118" y="7207806"/>
+          <a:ext cx="155236" cy="136413"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>226218</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>381454</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>160225</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="Rectangle 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0C9DD147-1F62-4636-A591-9C59C438E8B9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4379118" y="7384732"/>
+          <a:ext cx="155236" cy="136413"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>x</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>223546</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>19439</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>378782</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>155852</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="Rectangle 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E6A5CCB8-1F0A-4EBA-9E03-F1EBC5140DCF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4376446" y="8340479"/>
+          <a:ext cx="155236" cy="136413"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>223546</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>29158</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>378782</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>165571</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="Rectangle 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{273D062E-D850-41BF-A4F4-E116CAF904FE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4376446" y="8533078"/>
+          <a:ext cx="155236" cy="136413"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>102995</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>79568</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>258231</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>221657</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="Rectangle 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{71AD6549-E88A-4EA7-9A81-28444DF7E02E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="102995" y="3089468"/>
+          <a:ext cx="155236" cy="142089"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>94409</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>111228</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>249645</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>253317</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="Rectangle 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{20FA9057-ADC1-46FD-AB30-AA9417FE71D0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="94409" y="3448788"/>
+          <a:ext cx="155236" cy="142089"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>46955</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>20125</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>335388</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>281727</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="TextBox 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EBEC433F-7485-45DC-A46B-792E2BEDB379}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="46955" y="3030025"/>
+          <a:ext cx="288433" cy="261602"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>x</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>192647</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>279848</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>481080</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>206062</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="TextBox 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FF378A9E-09DB-4150-987E-7C1FEE4512F6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4345547" y="3289748"/>
+          <a:ext cx="288433" cy="253874"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>X</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -4159,9 +5890,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4196,7 +5927,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4231,7 +5962,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4404,72 +6135,72 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1E0E90C-24F5-43F8-9D78-C712A3D7F5C0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N57"/>
   <sheetViews>
     <sheetView topLeftCell="A28" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
       <selection activeCell="R49" sqref="R49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.44140625" customWidth="1"/>
-    <col min="2" max="2" width="9.109375" customWidth="1"/>
-    <col min="3" max="3" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
-      <c r="E2" s="42" t="s">
+      <c r="E2" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
       <c r="M2" s="2"/>
     </row>
-    <row r="3" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
-      <c r="E3" s="43" t="s">
+      <c r="E3" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="43"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
     </row>
-    <row r="4" spans="1:14" ht="18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
-      <c r="E4" s="44" t="s">
+      <c r="E4" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
       <c r="K4" s="7"/>
       <c r="L4" s="7"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
@@ -4479,31 +6210,31 @@
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="I6" s="9"/>
       <c r="K6" s="9"/>
       <c r="L6" s="9"/>
-      <c r="M6" s="46"/>
-      <c r="N6" s="46"/>
-    </row>
-    <row r="7" spans="1:14" ht="21" x14ac:dyDescent="0.4">
-      <c r="C7" s="47" t="s">
+      <c r="M6" s="60"/>
+      <c r="N6" s="60"/>
+    </row>
+    <row r="7" spans="1:14" ht="21" x14ac:dyDescent="0.35">
+      <c r="C7" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="47"/>
-      <c r="J7" s="47"/>
-      <c r="K7" s="47"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="61"/>
+      <c r="H7" s="61"/>
+      <c r="I7" s="61"/>
+      <c r="J7" s="61"/>
+      <c r="K7" s="61"/>
       <c r="L7" s="10"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="J8" s="11"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>6</v>
       </c>
@@ -4513,47 +6244,47 @@
       <c r="E9" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="37" t="s">
+      <c r="F9" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="37"/>
+      <c r="G9" s="39"/>
       <c r="H9" s="13"/>
-      <c r="I9" s="37" t="s">
+      <c r="I9" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="J9" s="37"/>
-      <c r="K9" s="37"/>
+      <c r="J9" s="39"/>
+      <c r="K9" s="39"/>
       <c r="L9" s="13"/>
       <c r="M9" s="13" t="s">
         <v>10</v>
       </c>
       <c r="N9" s="15"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="52" t="s">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="53"/>
-      <c r="C10" s="53"/>
+      <c r="B10" s="63"/>
+      <c r="C10" s="63"/>
       <c r="D10" s="16"/>
       <c r="E10" s="17"/>
-      <c r="F10" s="53" t="s">
+      <c r="F10" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="53"/>
+      <c r="G10" s="63"/>
       <c r="H10" s="17"/>
-      <c r="I10" s="53" t="s">
+      <c r="I10" s="63" t="s">
         <v>73</v>
       </c>
-      <c r="J10" s="53"/>
-      <c r="K10" s="53"/>
-      <c r="L10" s="53" t="s">
+      <c r="J10" s="63"/>
+      <c r="K10" s="63"/>
+      <c r="L10" s="63" t="s">
         <v>74</v>
       </c>
-      <c r="M10" s="53"/>
-      <c r="N10" s="54"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="M10" s="63"/>
+      <c r="N10" s="64"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>79</v>
       </c>
@@ -4567,15 +6298,15 @@
       <c r="G11" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="J11" s="37" t="s">
+      <c r="J11" s="39" t="s">
         <v>72</v>
       </c>
-      <c r="K11" s="37"/>
-      <c r="L11" s="37"/>
-      <c r="M11" s="37"/>
-      <c r="N11" s="55"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="K11" s="39"/>
+      <c r="L11" s="39"/>
+      <c r="M11" s="39"/>
+      <c r="N11" s="65"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="20"/>
       <c r="B12" s="17"/>
       <c r="C12" s="17"/>
@@ -4591,25 +6322,25 @@
       <c r="M12" s="17"/>
       <c r="N12" s="21"/>
     </row>
-    <row r="13" spans="1:14" ht="18" x14ac:dyDescent="0.35">
-      <c r="A13" s="56" t="s">
+    <row r="13" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A13" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="57"/>
-      <c r="C13" s="57"/>
-      <c r="D13" s="57"/>
-      <c r="E13" s="57"/>
-      <c r="F13" s="57"/>
-      <c r="G13" s="57"/>
-      <c r="H13" s="57"/>
-      <c r="I13" s="57"/>
-      <c r="J13" s="57"/>
-      <c r="K13" s="57"/>
-      <c r="L13" s="57"/>
-      <c r="M13" s="57"/>
-      <c r="N13" s="58"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B13" s="67"/>
+      <c r="C13" s="67"/>
+      <c r="D13" s="67"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="67"/>
+      <c r="G13" s="67"/>
+      <c r="H13" s="67"/>
+      <c r="I13" s="67"/>
+      <c r="J13" s="67"/>
+      <c r="K13" s="67"/>
+      <c r="L13" s="67"/>
+      <c r="M13" s="67"/>
+      <c r="N13" s="68"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
         <v>15</v>
       </c>
@@ -4629,7 +6360,7 @@
       <c r="M14" s="23"/>
       <c r="N14" s="24"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="25"/>
       <c r="G15" s="26"/>
       <c r="H15" s="27"/>
@@ -4642,7 +6373,7 @@
       <c r="M15" s="29"/>
       <c r="N15" s="30"/>
     </row>
-    <row r="16" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="31"/>
       <c r="B16" s="48" t="s">
         <v>18</v>
@@ -4662,7 +6393,7 @@
       <c r="M16" s="50"/>
       <c r="N16" s="51"/>
     </row>
-    <row r="17" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="31"/>
       <c r="B17" s="48" t="s">
         <v>20</v>
@@ -4682,7 +6413,7 @@
       <c r="M17" s="50"/>
       <c r="N17" s="51"/>
     </row>
-    <row r="18" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="31"/>
       <c r="B18" s="48" t="s">
         <v>22</v>
@@ -4702,7 +6433,7 @@
       <c r="M18" s="29"/>
       <c r="N18" s="30"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="31"/>
       <c r="B19" s="48" t="s">
         <v>24</v>
@@ -4722,7 +6453,7 @@
       <c r="M19" s="50"/>
       <c r="N19" s="51"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="31"/>
       <c r="B20" s="48" t="s">
         <v>26</v>
@@ -4742,7 +6473,7 @@
       <c r="M20" s="50"/>
       <c r="N20" s="51"/>
     </row>
-    <row r="21" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="31"/>
       <c r="B21" s="48" t="s">
         <v>28</v>
@@ -4752,17 +6483,17 @@
       <c r="E21" s="48"/>
       <c r="F21" s="48"/>
       <c r="G21" s="49"/>
-      <c r="H21" s="59" t="s">
+      <c r="H21" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="I21" s="60"/>
-      <c r="J21" s="60"/>
-      <c r="K21" s="60"/>
-      <c r="L21" s="60"/>
-      <c r="M21" s="60"/>
-      <c r="N21" s="61"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="I21" s="53"/>
+      <c r="J21" s="53"/>
+      <c r="K21" s="53"/>
+      <c r="L21" s="53"/>
+      <c r="M21" s="53"/>
+      <c r="N21" s="54"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="31"/>
       <c r="B22" s="48" t="s">
         <v>30</v>
@@ -4773,16 +6504,16 @@
       <c r="F22" s="48"/>
       <c r="G22" s="49"/>
       <c r="H22" s="27"/>
-      <c r="I22" s="62" t="s">
+      <c r="I22" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="J22" s="62"/>
-      <c r="K22" s="62"/>
-      <c r="L22" s="62"/>
-      <c r="M22" s="62"/>
-      <c r="N22" s="63"/>
-    </row>
-    <row r="23" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J22" s="55"/>
+      <c r="K22" s="55"/>
+      <c r="L22" s="55"/>
+      <c r="M22" s="55"/>
+      <c r="N22" s="56"/>
+    </row>
+    <row r="23" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="31"/>
       <c r="B23" s="48" t="s">
         <v>32</v>
@@ -4792,17 +6523,17 @@
       <c r="E23" s="48"/>
       <c r="F23" s="48"/>
       <c r="G23" s="49"/>
-      <c r="H23" s="64" t="s">
+      <c r="H23" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="I23" s="65"/>
-      <c r="J23" s="65"/>
-      <c r="K23" s="65"/>
-      <c r="L23" s="65"/>
-      <c r="M23" s="65"/>
-      <c r="N23" s="66"/>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="I23" s="58"/>
+      <c r="J23" s="58"/>
+      <c r="K23" s="58"/>
+      <c r="L23" s="58"/>
+      <c r="M23" s="58"/>
+      <c r="N23" s="59"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="31"/>
       <c r="B24" s="48" t="s">
         <v>33</v>
@@ -4812,17 +6543,17 @@
       <c r="E24" s="48"/>
       <c r="F24" s="48"/>
       <c r="G24" s="49"/>
-      <c r="H24" s="67" t="s">
+      <c r="H24" s="69" t="s">
         <v>34</v>
       </c>
-      <c r="I24" s="68"/>
-      <c r="J24" s="68"/>
-      <c r="K24" s="68"/>
+      <c r="I24" s="70"/>
+      <c r="J24" s="70"/>
+      <c r="K24" s="70"/>
       <c r="L24" s="29"/>
       <c r="M24" s="29"/>
       <c r="N24" s="30"/>
     </row>
-    <row r="25" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="31"/>
       <c r="B25" s="48" t="s">
         <v>35</v>
@@ -4842,7 +6573,7 @@
       <c r="M25" s="50"/>
       <c r="N25" s="51"/>
     </row>
-    <row r="26" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="31"/>
       <c r="B26" s="48" t="s">
         <v>37</v>
@@ -4862,7 +6593,7 @@
       <c r="M26" s="50"/>
       <c r="N26" s="51"/>
     </row>
-    <row r="27" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="31"/>
       <c r="B27" s="48" t="s">
         <v>39</v>
@@ -4872,17 +6603,17 @@
       <c r="E27" s="48"/>
       <c r="F27" s="48"/>
       <c r="G27" s="49"/>
-      <c r="H27" s="69" t="s">
+      <c r="H27" s="71" t="s">
         <v>40</v>
       </c>
-      <c r="I27" s="70"/>
-      <c r="J27" s="70"/>
-      <c r="K27" s="70"/>
+      <c r="I27" s="72"/>
+      <c r="J27" s="72"/>
+      <c r="K27" s="72"/>
       <c r="L27" s="29"/>
       <c r="M27" s="29"/>
       <c r="N27" s="30"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="31"/>
       <c r="B28" s="48" t="s">
         <v>41</v>
@@ -4902,11 +6633,11 @@
       <c r="M28" s="50"/>
       <c r="N28" s="51"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A29" s="71" t="s">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="B29" s="72"/>
+      <c r="B29" s="74"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="G29" s="26"/>
@@ -4920,18 +6651,18 @@
       <c r="M29" s="50"/>
       <c r="N29" s="51"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A30" s="52"/>
-      <c r="B30" s="53"/>
-      <c r="C30" s="53"/>
-      <c r="D30" s="53"/>
-      <c r="E30" s="53"/>
-      <c r="F30" s="53"/>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" s="62"/>
+      <c r="B30" s="63"/>
+      <c r="C30" s="63"/>
+      <c r="D30" s="63"/>
+      <c r="E30" s="63"/>
+      <c r="F30" s="63"/>
       <c r="G30" s="26"/>
       <c r="H30" s="25"/>
       <c r="N30" s="26"/>
     </row>
-    <row r="31" spans="1:14" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="20"/>
       <c r="B31" s="17"/>
       <c r="C31" s="17"/>
@@ -4947,7 +6678,7 @@
       <c r="M31" s="17"/>
       <c r="N31" s="21"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="22" t="s">
         <v>43</v>
       </c>
@@ -4967,20 +6698,20 @@
       <c r="M32" s="13"/>
       <c r="N32" s="15"/>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="25"/>
-      <c r="B33" s="53" t="s">
+      <c r="B33" s="63" t="s">
         <v>68</v>
       </c>
-      <c r="C33" s="53"/>
-      <c r="D33" s="53"/>
-      <c r="E33" s="53"/>
+      <c r="C33" s="63"/>
+      <c r="D33" s="63"/>
+      <c r="E33" s="63"/>
       <c r="I33" s="33" t="s">
         <v>45</v>
       </c>
       <c r="N33" s="26"/>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="25"/>
       <c r="B34" s="34" t="s">
         <v>46</v>
@@ -4990,24 +6721,24 @@
       </c>
       <c r="N34" s="26"/>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="25"/>
-      <c r="B35" s="73">
+      <c r="B35" s="75">
         <v>44995</v>
       </c>
-      <c r="C35" s="74"/>
-      <c r="D35" s="74"/>
-      <c r="E35" s="74"/>
-      <c r="I35" s="74" t="s">
+      <c r="C35" s="76"/>
+      <c r="D35" s="76"/>
+      <c r="E35" s="76"/>
+      <c r="I35" s="76" t="s">
         <v>75</v>
       </c>
-      <c r="J35" s="74"/>
-      <c r="K35" s="74"/>
-      <c r="L35" s="74"/>
-      <c r="M35" s="74"/>
+      <c r="J35" s="76"/>
+      <c r="K35" s="76"/>
+      <c r="L35" s="76"/>
+      <c r="M35" s="76"/>
       <c r="N35" s="26"/>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="20"/>
       <c r="B36" s="17"/>
       <c r="C36" s="17"/>
@@ -5016,34 +6747,34 @@
       <c r="F36" s="17"/>
       <c r="G36" s="17"/>
       <c r="H36" s="17"/>
-      <c r="I36" s="75" t="s">
+      <c r="I36" s="77" t="s">
         <v>48</v>
       </c>
-      <c r="J36" s="75"/>
-      <c r="K36" s="75"/>
-      <c r="L36" s="75"/>
-      <c r="M36" s="75"/>
+      <c r="J36" s="77"/>
+      <c r="K36" s="77"/>
+      <c r="L36" s="77"/>
+      <c r="M36" s="77"/>
       <c r="N36" s="21"/>
     </row>
-    <row r="37" spans="1:14" ht="18" x14ac:dyDescent="0.35">
-      <c r="A37" s="56" t="s">
+    <row r="37" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A37" s="66" t="s">
         <v>49</v>
       </c>
-      <c r="B37" s="57"/>
-      <c r="C37" s="57"/>
-      <c r="D37" s="57"/>
-      <c r="E37" s="57"/>
-      <c r="F37" s="57"/>
-      <c r="G37" s="57"/>
-      <c r="H37" s="57"/>
-      <c r="I37" s="57"/>
-      <c r="J37" s="57"/>
-      <c r="K37" s="57"/>
-      <c r="L37" s="57"/>
-      <c r="M37" s="57"/>
-      <c r="N37" s="58"/>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B37" s="67"/>
+      <c r="C37" s="67"/>
+      <c r="D37" s="67"/>
+      <c r="E37" s="67"/>
+      <c r="F37" s="67"/>
+      <c r="G37" s="67"/>
+      <c r="H37" s="67"/>
+      <c r="I37" s="67"/>
+      <c r="J37" s="67"/>
+      <c r="K37" s="67"/>
+      <c r="L37" s="67"/>
+      <c r="M37" s="67"/>
+      <c r="N37" s="68"/>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="36" t="s">
         <v>50</v>
       </c>
@@ -5063,15 +6794,15 @@
       <c r="M38" s="13"/>
       <c r="N38" s="15"/>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="25"/>
-      <c r="B39" s="46" t="s">
+      <c r="B39" s="60" t="s">
         <v>78</v>
       </c>
-      <c r="C39" s="46"/>
-      <c r="D39" s="46"/>
-      <c r="E39" s="46"/>
-      <c r="F39" s="46"/>
+      <c r="C39" s="60"/>
+      <c r="D39" s="60"/>
+      <c r="E39" s="60"/>
+      <c r="F39" s="60"/>
       <c r="G39" s="26"/>
       <c r="H39" s="25"/>
       <c r="I39" t="s">
@@ -5079,149 +6810,149 @@
       </c>
       <c r="N39" s="26"/>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="25"/>
       <c r="G40" s="26"/>
       <c r="H40" s="25"/>
-      <c r="I40" s="76" t="s">
+      <c r="I40" s="78" t="s">
         <v>53</v>
       </c>
-      <c r="J40" s="76"/>
-      <c r="K40" s="76"/>
-      <c r="L40" s="76"/>
-      <c r="M40" s="76"/>
-      <c r="N40" s="77"/>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A41" s="78"/>
-      <c r="B41" s="75"/>
-      <c r="C41" s="79"/>
-      <c r="D41" s="80" t="s">
+      <c r="J40" s="78"/>
+      <c r="K40" s="78"/>
+      <c r="L40" s="78"/>
+      <c r="M40" s="78"/>
+      <c r="N40" s="79"/>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A41" s="80"/>
+      <c r="B41" s="77"/>
+      <c r="C41" s="81"/>
+      <c r="D41" s="82" t="s">
         <v>54</v>
       </c>
-      <c r="E41" s="80"/>
-      <c r="F41" s="80" t="s">
+      <c r="E41" s="82"/>
+      <c r="F41" s="82" t="s">
         <v>55</v>
       </c>
-      <c r="G41" s="80"/>
-      <c r="H41" s="81" t="s">
+      <c r="G41" s="82"/>
+      <c r="H41" s="83" t="s">
         <v>56</v>
       </c>
-      <c r="I41" s="46"/>
-      <c r="J41" s="46"/>
-      <c r="K41" s="46"/>
-      <c r="L41" s="46"/>
-      <c r="M41" s="46"/>
-      <c r="N41" s="82"/>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A42" s="78" t="s">
+      <c r="I41" s="60"/>
+      <c r="J41" s="60"/>
+      <c r="K41" s="60"/>
+      <c r="L41" s="60"/>
+      <c r="M41" s="60"/>
+      <c r="N41" s="84"/>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A42" s="80" t="s">
         <v>57</v>
       </c>
-      <c r="B42" s="75"/>
-      <c r="C42" s="79"/>
-      <c r="D42" s="84">
+      <c r="B42" s="77"/>
+      <c r="C42" s="81"/>
+      <c r="D42" s="86">
         <v>40</v>
       </c>
-      <c r="E42" s="85"/>
-      <c r="F42" s="86"/>
-      <c r="G42" s="86"/>
-      <c r="H42" s="81" t="s">
+      <c r="E42" s="87"/>
+      <c r="F42" s="88"/>
+      <c r="G42" s="88"/>
+      <c r="H42" s="83" t="s">
         <v>56</v>
       </c>
-      <c r="I42" s="46"/>
-      <c r="J42" s="46"/>
-      <c r="K42" s="46"/>
-      <c r="L42" s="46"/>
-      <c r="M42" s="46"/>
-      <c r="N42" s="82"/>
-    </row>
-    <row r="43" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="78" t="s">
+      <c r="I42" s="60"/>
+      <c r="J42" s="60"/>
+      <c r="K42" s="60"/>
+      <c r="L42" s="60"/>
+      <c r="M42" s="60"/>
+      <c r="N42" s="84"/>
+    </row>
+    <row r="43" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="80" t="s">
         <v>58</v>
       </c>
-      <c r="B43" s="75"/>
-      <c r="C43" s="79"/>
-      <c r="D43" s="38">
+      <c r="B43" s="77"/>
+      <c r="C43" s="81"/>
+      <c r="D43" s="40">
         <v>1</v>
       </c>
-      <c r="E43" s="39"/>
-      <c r="F43" s="40"/>
-      <c r="G43" s="41"/>
-      <c r="H43" s="81" t="s">
+      <c r="E43" s="41"/>
+      <c r="F43" s="42"/>
+      <c r="G43" s="43"/>
+      <c r="H43" s="83" t="s">
         <v>56</v>
       </c>
-      <c r="I43" s="46"/>
-      <c r="J43" s="46"/>
-      <c r="K43" s="46"/>
-      <c r="L43" s="46"/>
-      <c r="M43" s="46"/>
-      <c r="N43" s="82"/>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A44" s="78" t="s">
+      <c r="I43" s="60"/>
+      <c r="J43" s="60"/>
+      <c r="K43" s="60"/>
+      <c r="L43" s="60"/>
+      <c r="M43" s="60"/>
+      <c r="N43" s="84"/>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A44" s="80" t="s">
         <v>59</v>
       </c>
-      <c r="B44" s="75"/>
-      <c r="C44" s="79"/>
-      <c r="D44" s="87">
+      <c r="B44" s="77"/>
+      <c r="C44" s="81"/>
+      <c r="D44" s="89">
         <v>39</v>
       </c>
-      <c r="E44" s="88"/>
-      <c r="F44" s="89">
+      <c r="E44" s="90"/>
+      <c r="F44" s="91">
         <v>55</v>
       </c>
-      <c r="G44" s="89"/>
+      <c r="G44" s="91"/>
       <c r="H44" s="25"/>
       <c r="N44" s="26"/>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="25"/>
       <c r="G45" s="26"/>
       <c r="H45" s="25"/>
       <c r="N45" s="26"/>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="25"/>
-      <c r="B46" s="74" t="s">
+      <c r="B46" s="76" t="s">
         <v>65</v>
       </c>
-      <c r="C46" s="74"/>
-      <c r="D46" s="74"/>
-      <c r="E46" s="74"/>
-      <c r="F46" s="74"/>
+      <c r="C46" s="76"/>
+      <c r="D46" s="76"/>
+      <c r="E46" s="76"/>
+      <c r="F46" s="76"/>
       <c r="G46" s="26"/>
       <c r="H46" s="25"/>
-      <c r="I46" s="74" t="s">
+      <c r="I46" s="76" t="s">
         <v>69</v>
       </c>
-      <c r="J46" s="74"/>
-      <c r="K46" s="74"/>
-      <c r="L46" s="74"/>
-      <c r="M46" s="74"/>
+      <c r="J46" s="76"/>
+      <c r="K46" s="76"/>
+      <c r="L46" s="76"/>
+      <c r="M46" s="76"/>
       <c r="N46" s="26"/>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="20"/>
-      <c r="B47" s="83" t="s">
+      <c r="B47" s="85" t="s">
         <v>66</v>
       </c>
-      <c r="C47" s="83"/>
-      <c r="D47" s="83"/>
-      <c r="E47" s="83"/>
-      <c r="F47" s="83"/>
+      <c r="C47" s="85"/>
+      <c r="D47" s="85"/>
+      <c r="E47" s="85"/>
+      <c r="F47" s="85"/>
       <c r="G47" s="21"/>
       <c r="H47" s="20"/>
-      <c r="I47" s="83" t="s">
+      <c r="I47" s="85" t="s">
         <v>70</v>
       </c>
-      <c r="J47" s="83"/>
-      <c r="K47" s="83"/>
-      <c r="L47" s="83"/>
-      <c r="M47" s="83"/>
+      <c r="J47" s="85"/>
+      <c r="K47" s="85"/>
+      <c r="L47" s="85"/>
+      <c r="M47" s="85"/>
       <c r="N47" s="21"/>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="12" t="s">
         <v>60</v>
       </c>
@@ -5241,7 +6972,7 @@
       <c r="M48" s="13"/>
       <c r="N48" s="15"/>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="25"/>
       <c r="B49" s="16" t="s">
         <v>67</v>
@@ -5249,76 +6980,76 @@
       <c r="C49" t="s">
         <v>62</v>
       </c>
-      <c r="I49" s="53"/>
-      <c r="J49" s="53"/>
-      <c r="K49" s="53"/>
-      <c r="L49" s="53"/>
-      <c r="M49" s="53"/>
-      <c r="N49" s="54"/>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="I49" s="63"/>
+      <c r="J49" s="63"/>
+      <c r="K49" s="63"/>
+      <c r="L49" s="63"/>
+      <c r="M49" s="63"/>
+      <c r="N49" s="64"/>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" s="25"/>
       <c r="B50" s="16"/>
       <c r="C50" t="s">
         <v>63</v>
       </c>
-      <c r="I50" s="53"/>
-      <c r="J50" s="53"/>
-      <c r="K50" s="53"/>
-      <c r="L50" s="53"/>
-      <c r="M50" s="53"/>
-      <c r="N50" s="54"/>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="I50" s="63"/>
+      <c r="J50" s="63"/>
+      <c r="K50" s="63"/>
+      <c r="L50" s="63"/>
+      <c r="M50" s="63"/>
+      <c r="N50" s="64"/>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="25"/>
       <c r="B51" s="17"/>
       <c r="C51" t="s">
         <v>64</v>
       </c>
-      <c r="I51" s="53"/>
-      <c r="J51" s="53"/>
-      <c r="K51" s="53"/>
-      <c r="L51" s="53"/>
-      <c r="M51" s="53"/>
-      <c r="N51" s="54"/>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="I51" s="63"/>
+      <c r="J51" s="63"/>
+      <c r="K51" s="63"/>
+      <c r="L51" s="63"/>
+      <c r="M51" s="63"/>
+      <c r="N51" s="64"/>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" s="25"/>
       <c r="N52" s="26"/>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="25"/>
       <c r="N53" s="26"/>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" s="25"/>
       <c r="N54" s="26"/>
     </row>
-    <row r="55" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="25"/>
-      <c r="E55" s="90" t="s">
+      <c r="E55" s="92" t="s">
         <v>69</v>
       </c>
-      <c r="F55" s="90"/>
-      <c r="G55" s="90"/>
-      <c r="H55" s="90"/>
-      <c r="I55" s="90"/>
-      <c r="J55" s="90"/>
+      <c r="F55" s="92"/>
+      <c r="G55" s="92"/>
+      <c r="H55" s="92"/>
+      <c r="I55" s="92"/>
+      <c r="J55" s="92"/>
       <c r="N55" s="26"/>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="25"/>
-      <c r="E56" s="91" t="s">
+      <c r="E56" s="93" t="s">
         <v>70</v>
       </c>
-      <c r="F56" s="91"/>
-      <c r="G56" s="91"/>
-      <c r="H56" s="91"/>
-      <c r="I56" s="91"/>
-      <c r="J56" s="91"/>
+      <c r="F56" s="93"/>
+      <c r="G56" s="93"/>
+      <c r="H56" s="93"/>
+      <c r="I56" s="93"/>
+      <c r="J56" s="93"/>
       <c r="N56" s="26"/>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" s="20"/>
       <c r="B57" s="17"/>
       <c r="C57" s="17"/>
@@ -5377,7 +7108,6 @@
     <mergeCell ref="I25:N25"/>
     <mergeCell ref="B26:G26"/>
     <mergeCell ref="I26:N26"/>
-    <mergeCell ref="M6:N6"/>
     <mergeCell ref="C7:K7"/>
     <mergeCell ref="B19:G19"/>
     <mergeCell ref="I19:N19"/>
@@ -5408,6 +7138,7 @@
     <mergeCell ref="B23:G23"/>
     <mergeCell ref="H23:N23"/>
     <mergeCell ref="B24:G24"/>
+    <mergeCell ref="M6:N6"/>
   </mergeCells>
   <pageMargins left="0.45" right="0.45" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup scale="76" orientation="portrait" horizontalDpi="4294967293" verticalDpi="300" r:id="rId1"/>
@@ -5416,72 +7147,72 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF01FB24-C63E-4791-807A-F9388BE632DE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView topLeftCell="A26" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11:N11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.44140625" customWidth="1"/>
-    <col min="2" max="2" width="9.109375" customWidth="1"/>
-    <col min="3" max="3" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
-      <c r="E2" s="42" t="s">
+      <c r="E2" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
       <c r="M2" s="2"/>
     </row>
-    <row r="3" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
-      <c r="E3" s="43" t="s">
+      <c r="E3" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="43"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
     </row>
-    <row r="4" spans="1:14" ht="18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
-      <c r="E4" s="44" t="s">
+      <c r="E4" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
       <c r="K4" s="7"/>
       <c r="L4" s="7"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
@@ -5491,31 +7222,31 @@
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="I6" s="9"/>
       <c r="K6" s="9"/>
       <c r="L6" s="9"/>
-      <c r="M6" s="46"/>
-      <c r="N6" s="46"/>
-    </row>
-    <row r="7" spans="1:14" ht="21" x14ac:dyDescent="0.4">
-      <c r="C7" s="47" t="s">
+      <c r="M6" s="60"/>
+      <c r="N6" s="60"/>
+    </row>
+    <row r="7" spans="1:14" ht="21" x14ac:dyDescent="0.35">
+      <c r="C7" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="47"/>
-      <c r="J7" s="47"/>
-      <c r="K7" s="47"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="61"/>
+      <c r="H7" s="61"/>
+      <c r="I7" s="61"/>
+      <c r="J7" s="61"/>
+      <c r="K7" s="61"/>
       <c r="L7" s="10"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="J8" s="11"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>6</v>
       </c>
@@ -5525,69 +7256,69 @@
       <c r="E9" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="37" t="s">
+      <c r="F9" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="37"/>
+      <c r="G9" s="39"/>
       <c r="H9" s="13"/>
-      <c r="I9" s="37" t="s">
+      <c r="I9" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="J9" s="37"/>
-      <c r="K9" s="37"/>
+      <c r="J9" s="39"/>
+      <c r="K9" s="39"/>
       <c r="L9" s="13"/>
       <c r="M9" s="13" t="s">
         <v>10</v>
       </c>
       <c r="N9" s="15"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="94" t="s">
-        <v>87</v>
-      </c>
-      <c r="B10" s="74"/>
-      <c r="C10" s="74"/>
+        <v>86</v>
+      </c>
+      <c r="B10" s="76"/>
+      <c r="C10" s="76"/>
       <c r="D10" s="16"/>
       <c r="E10" s="17"/>
-      <c r="F10" s="74" t="s">
+      <c r="F10" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="74"/>
-      <c r="H10" s="92"/>
-      <c r="I10" s="74" t="s">
+      <c r="G10" s="76"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="76" t="s">
         <v>73</v>
       </c>
-      <c r="J10" s="74"/>
-      <c r="K10" s="74"/>
-      <c r="L10" s="74" t="s">
+      <c r="J10" s="76"/>
+      <c r="K10" s="76"/>
+      <c r="L10" s="76" t="s">
         <v>74</v>
       </c>
-      <c r="M10" s="74"/>
-      <c r="N10" s="93"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="M10" s="76"/>
+      <c r="N10" s="95"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="B11" s="13"/>
       <c r="C11" s="18"/>
       <c r="D11" s="19"/>
       <c r="E11" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F11" s="13"/>
-      <c r="G11" s="13" t="s">
+      <c r="G11" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="J11" s="37" t="s">
-        <v>81</v>
-      </c>
-      <c r="K11" s="37"/>
-      <c r="L11" s="37"/>
-      <c r="M11" s="37"/>
-      <c r="N11" s="55"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="J11" s="39" t="s">
+        <v>80</v>
+      </c>
+      <c r="K11" s="39"/>
+      <c r="L11" s="39"/>
+      <c r="M11" s="39"/>
+      <c r="N11" s="65"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="20"/>
       <c r="B12" s="17"/>
       <c r="C12" s="17"/>
@@ -5603,25 +7334,25 @@
       <c r="M12" s="17"/>
       <c r="N12" s="21"/>
     </row>
-    <row r="13" spans="1:14" ht="18" x14ac:dyDescent="0.35">
-      <c r="A13" s="56" t="s">
+    <row r="13" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A13" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="57"/>
-      <c r="C13" s="57"/>
-      <c r="D13" s="57"/>
-      <c r="E13" s="57"/>
-      <c r="F13" s="57"/>
-      <c r="G13" s="57"/>
-      <c r="H13" s="57"/>
-      <c r="I13" s="57"/>
-      <c r="J13" s="57"/>
-      <c r="K13" s="57"/>
-      <c r="L13" s="57"/>
-      <c r="M13" s="57"/>
-      <c r="N13" s="58"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B13" s="67"/>
+      <c r="C13" s="67"/>
+      <c r="D13" s="67"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="67"/>
+      <c r="G13" s="67"/>
+      <c r="H13" s="67"/>
+      <c r="I13" s="67"/>
+      <c r="J13" s="67"/>
+      <c r="K13" s="67"/>
+      <c r="L13" s="67"/>
+      <c r="M13" s="67"/>
+      <c r="N13" s="68"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
         <v>15</v>
       </c>
@@ -5641,7 +7372,7 @@
       <c r="M14" s="23"/>
       <c r="N14" s="24"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="25"/>
       <c r="G15" s="26"/>
       <c r="H15" s="27"/>
@@ -5654,7 +7385,7 @@
       <c r="M15" s="29"/>
       <c r="N15" s="30"/>
     </row>
-    <row r="16" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="31"/>
       <c r="B16" s="48" t="s">
         <v>18</v>
@@ -5674,7 +7405,7 @@
       <c r="M16" s="50"/>
       <c r="N16" s="51"/>
     </row>
-    <row r="17" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="31"/>
       <c r="B17" s="48" t="s">
         <v>20</v>
@@ -5686,7 +7417,7 @@
       <c r="G17" s="49"/>
       <c r="H17" s="27"/>
       <c r="I17" s="50" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J17" s="50"/>
       <c r="K17" s="50"/>
@@ -5694,7 +7425,7 @@
       <c r="M17" s="50"/>
       <c r="N17" s="51"/>
     </row>
-    <row r="18" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="31"/>
       <c r="B18" s="48" t="s">
         <v>22</v>
@@ -5714,7 +7445,7 @@
       <c r="M18" s="29"/>
       <c r="N18" s="30"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="31"/>
       <c r="B19" s="48" t="s">
         <v>24</v>
@@ -5734,7 +7465,7 @@
       <c r="M19" s="50"/>
       <c r="N19" s="51"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="31"/>
       <c r="B20" s="48" t="s">
         <v>26</v>
@@ -5754,7 +7485,7 @@
       <c r="M20" s="50"/>
       <c r="N20" s="51"/>
     </row>
-    <row r="21" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="31"/>
       <c r="B21" s="48" t="s">
         <v>28</v>
@@ -5764,17 +7495,17 @@
       <c r="E21" s="48"/>
       <c r="F21" s="48"/>
       <c r="G21" s="49"/>
-      <c r="H21" s="59" t="s">
+      <c r="H21" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="I21" s="60"/>
-      <c r="J21" s="60"/>
-      <c r="K21" s="60"/>
-      <c r="L21" s="60"/>
-      <c r="M21" s="60"/>
-      <c r="N21" s="61"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="I21" s="53"/>
+      <c r="J21" s="53"/>
+      <c r="K21" s="53"/>
+      <c r="L21" s="53"/>
+      <c r="M21" s="53"/>
+      <c r="N21" s="54"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="31"/>
       <c r="B22" s="48" t="s">
         <v>30</v>
@@ -5785,16 +7516,16 @@
       <c r="F22" s="48"/>
       <c r="G22" s="49"/>
       <c r="H22" s="27"/>
-      <c r="I22" s="62" t="s">
+      <c r="I22" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="J22" s="62"/>
-      <c r="K22" s="62"/>
-      <c r="L22" s="62"/>
-      <c r="M22" s="62"/>
-      <c r="N22" s="63"/>
-    </row>
-    <row r="23" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J22" s="55"/>
+      <c r="K22" s="55"/>
+      <c r="L22" s="55"/>
+      <c r="M22" s="55"/>
+      <c r="N22" s="56"/>
+    </row>
+    <row r="23" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="31"/>
       <c r="B23" s="48" t="s">
         <v>32</v>
@@ -5804,17 +7535,17 @@
       <c r="E23" s="48"/>
       <c r="F23" s="48"/>
       <c r="G23" s="49"/>
-      <c r="H23" s="64" t="s">
+      <c r="H23" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="I23" s="65"/>
-      <c r="J23" s="65"/>
-      <c r="K23" s="65"/>
-      <c r="L23" s="65"/>
-      <c r="M23" s="65"/>
-      <c r="N23" s="66"/>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="I23" s="58"/>
+      <c r="J23" s="58"/>
+      <c r="K23" s="58"/>
+      <c r="L23" s="58"/>
+      <c r="M23" s="58"/>
+      <c r="N23" s="59"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="31"/>
       <c r="B24" s="48" t="s">
         <v>33</v>
@@ -5824,17 +7555,17 @@
       <c r="E24" s="48"/>
       <c r="F24" s="48"/>
       <c r="G24" s="49"/>
-      <c r="H24" s="67" t="s">
+      <c r="H24" s="69" t="s">
         <v>34</v>
       </c>
-      <c r="I24" s="68"/>
-      <c r="J24" s="68"/>
-      <c r="K24" s="68"/>
+      <c r="I24" s="70"/>
+      <c r="J24" s="70"/>
+      <c r="K24" s="70"/>
       <c r="L24" s="29"/>
       <c r="M24" s="29"/>
       <c r="N24" s="30"/>
     </row>
-    <row r="25" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="31"/>
       <c r="B25" s="48" t="s">
         <v>35</v>
@@ -5854,7 +7585,7 @@
       <c r="M25" s="50"/>
       <c r="N25" s="51"/>
     </row>
-    <row r="26" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="31"/>
       <c r="B26" s="48" t="s">
         <v>37</v>
@@ -5874,30 +7605,30 @@
       <c r="M26" s="50"/>
       <c r="N26" s="51"/>
     </row>
-    <row r="27" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="31"/>
       <c r="B27" s="48" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C27" s="48"/>
       <c r="D27" s="48"/>
       <c r="E27" s="48"/>
       <c r="F27" s="48"/>
       <c r="G27" s="49"/>
-      <c r="H27" s="69" t="s">
+      <c r="H27" s="71" t="s">
         <v>40</v>
       </c>
-      <c r="I27" s="70"/>
-      <c r="J27" s="70"/>
-      <c r="K27" s="70"/>
+      <c r="I27" s="72"/>
+      <c r="J27" s="72"/>
+      <c r="K27" s="72"/>
       <c r="L27" s="29"/>
       <c r="M27" s="29"/>
       <c r="N27" s="30"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="31"/>
       <c r="B28" s="48" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C28" s="48"/>
       <c r="D28" s="48"/>
@@ -5914,14 +7645,14 @@
       <c r="M28" s="50"/>
       <c r="N28" s="51"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A29" s="71" t="s">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="B29" s="72"/>
-      <c r="C29" s="74"/>
-      <c r="D29" s="74"/>
-      <c r="E29" s="74"/>
+      <c r="B29" s="74"/>
+      <c r="C29" s="76"/>
+      <c r="D29" s="76"/>
+      <c r="E29" s="76"/>
       <c r="G29" s="26"/>
       <c r="H29" s="27"/>
       <c r="I29" s="50" t="s">
@@ -5933,18 +7664,18 @@
       <c r="M29" s="50"/>
       <c r="N29" s="51"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A30" s="52"/>
-      <c r="B30" s="53"/>
-      <c r="C30" s="53"/>
-      <c r="D30" s="53"/>
-      <c r="E30" s="53"/>
-      <c r="F30" s="53"/>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" s="62"/>
+      <c r="B30" s="63"/>
+      <c r="C30" s="63"/>
+      <c r="D30" s="63"/>
+      <c r="E30" s="63"/>
+      <c r="F30" s="63"/>
       <c r="G30" s="26"/>
       <c r="H30" s="25"/>
       <c r="N30" s="26"/>
     </row>
-    <row r="31" spans="1:14" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="20"/>
       <c r="B31" s="17"/>
       <c r="C31" s="17"/>
@@ -5960,7 +7691,7 @@
       <c r="M31" s="17"/>
       <c r="N31" s="21"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="22" t="s">
         <v>43</v>
       </c>
@@ -5980,20 +7711,20 @@
       <c r="M32" s="13"/>
       <c r="N32" s="15"/>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="25"/>
-      <c r="B33" s="74" t="s">
-        <v>82</v>
-      </c>
-      <c r="C33" s="74"/>
-      <c r="D33" s="74"/>
-      <c r="E33" s="74"/>
+      <c r="B33" s="76" t="s">
+        <v>81</v>
+      </c>
+      <c r="C33" s="76"/>
+      <c r="D33" s="76"/>
+      <c r="E33" s="76"/>
       <c r="I33" s="33" t="s">
         <v>45</v>
       </c>
       <c r="N33" s="26"/>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="25"/>
       <c r="B34" s="34" t="s">
         <v>46</v>
@@ -6003,24 +7734,24 @@
       </c>
       <c r="N34" s="26"/>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="25"/>
-      <c r="B35" s="73" t="s">
-        <v>83</v>
-      </c>
-      <c r="C35" s="74"/>
-      <c r="D35" s="74"/>
-      <c r="E35" s="74"/>
-      <c r="I35" s="74" t="s">
+      <c r="B35" s="75" t="s">
+        <v>82</v>
+      </c>
+      <c r="C35" s="76"/>
+      <c r="D35" s="76"/>
+      <c r="E35" s="76"/>
+      <c r="I35" s="76" t="s">
         <v>75</v>
       </c>
-      <c r="J35" s="74"/>
-      <c r="K35" s="74"/>
-      <c r="L35" s="74"/>
-      <c r="M35" s="74"/>
+      <c r="J35" s="76"/>
+      <c r="K35" s="76"/>
+      <c r="L35" s="76"/>
+      <c r="M35" s="76"/>
       <c r="N35" s="26"/>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="20"/>
       <c r="B36" s="17"/>
       <c r="C36" s="17"/>
@@ -6029,34 +7760,34 @@
       <c r="F36" s="17"/>
       <c r="G36" s="17"/>
       <c r="H36" s="17"/>
-      <c r="I36" s="75" t="s">
+      <c r="I36" s="77" t="s">
         <v>48</v>
       </c>
-      <c r="J36" s="75"/>
-      <c r="K36" s="75"/>
-      <c r="L36" s="75"/>
-      <c r="M36" s="75"/>
+      <c r="J36" s="77"/>
+      <c r="K36" s="77"/>
+      <c r="L36" s="77"/>
+      <c r="M36" s="77"/>
       <c r="N36" s="21"/>
     </row>
-    <row r="37" spans="1:14" ht="18" x14ac:dyDescent="0.35">
-      <c r="A37" s="56" t="s">
+    <row r="37" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A37" s="66" t="s">
         <v>49</v>
       </c>
-      <c r="B37" s="57"/>
-      <c r="C37" s="57"/>
-      <c r="D37" s="57"/>
-      <c r="E37" s="57"/>
-      <c r="F37" s="57"/>
-      <c r="G37" s="57"/>
-      <c r="H37" s="57"/>
-      <c r="I37" s="57"/>
-      <c r="J37" s="57"/>
-      <c r="K37" s="57"/>
-      <c r="L37" s="57"/>
-      <c r="M37" s="57"/>
-      <c r="N37" s="58"/>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B37" s="67"/>
+      <c r="C37" s="67"/>
+      <c r="D37" s="67"/>
+      <c r="E37" s="67"/>
+      <c r="F37" s="67"/>
+      <c r="G37" s="67"/>
+      <c r="H37" s="67"/>
+      <c r="I37" s="67"/>
+      <c r="J37" s="67"/>
+      <c r="K37" s="67"/>
+      <c r="L37" s="67"/>
+      <c r="M37" s="67"/>
+      <c r="N37" s="68"/>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="36" t="s">
         <v>50</v>
       </c>
@@ -6076,15 +7807,15 @@
       <c r="M38" s="13"/>
       <c r="N38" s="15"/>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="25"/>
-      <c r="B39" s="46" t="s">
-        <v>90</v>
-      </c>
-      <c r="C39" s="46"/>
-      <c r="D39" s="46"/>
-      <c r="E39" s="46"/>
-      <c r="F39" s="46"/>
+      <c r="B39" s="60" t="s">
+        <v>89</v>
+      </c>
+      <c r="C39" s="60"/>
+      <c r="D39" s="60"/>
+      <c r="E39" s="60"/>
+      <c r="F39" s="60"/>
       <c r="G39" s="26"/>
       <c r="H39" s="25"/>
       <c r="I39" t="s">
@@ -6092,153 +7823,153 @@
       </c>
       <c r="N39" s="26"/>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="25"/>
       <c r="G40" s="26"/>
       <c r="H40" s="25"/>
-      <c r="I40" s="76" t="s">
+      <c r="I40" s="78" t="s">
         <v>53</v>
       </c>
-      <c r="J40" s="76"/>
-      <c r="K40" s="76"/>
-      <c r="L40" s="76"/>
-      <c r="M40" s="76"/>
-      <c r="N40" s="77"/>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A41" s="78"/>
-      <c r="B41" s="75"/>
-      <c r="C41" s="79"/>
-      <c r="D41" s="80" t="s">
+      <c r="J40" s="78"/>
+      <c r="K40" s="78"/>
+      <c r="L40" s="78"/>
+      <c r="M40" s="78"/>
+      <c r="N40" s="79"/>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A41" s="80"/>
+      <c r="B41" s="77"/>
+      <c r="C41" s="81"/>
+      <c r="D41" s="82" t="s">
         <v>54</v>
       </c>
-      <c r="E41" s="80"/>
-      <c r="F41" s="80" t="s">
+      <c r="E41" s="82"/>
+      <c r="F41" s="82" t="s">
         <v>55</v>
       </c>
-      <c r="G41" s="80"/>
-      <c r="H41" s="81" t="s">
+      <c r="G41" s="82"/>
+      <c r="H41" s="83" t="s">
         <v>56</v>
       </c>
-      <c r="I41" s="46"/>
-      <c r="J41" s="46"/>
-      <c r="K41" s="46"/>
-      <c r="L41" s="46"/>
-      <c r="M41" s="46"/>
-      <c r="N41" s="82"/>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A42" s="78" t="s">
+      <c r="I41" s="60"/>
+      <c r="J41" s="60"/>
+      <c r="K41" s="60"/>
+      <c r="L41" s="60"/>
+      <c r="M41" s="60"/>
+      <c r="N41" s="84"/>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A42" s="80" t="s">
         <v>57</v>
       </c>
-      <c r="B42" s="75"/>
-      <c r="C42" s="79"/>
-      <c r="D42" s="84">
+      <c r="B42" s="77"/>
+      <c r="C42" s="81"/>
+      <c r="D42" s="86">
         <v>103</v>
       </c>
-      <c r="E42" s="85"/>
-      <c r="F42" s="89">
+      <c r="E42" s="87"/>
+      <c r="F42" s="91">
         <v>150</v>
       </c>
-      <c r="G42" s="89"/>
-      <c r="H42" s="81" t="s">
+      <c r="G42" s="91"/>
+      <c r="H42" s="83" t="s">
         <v>56</v>
       </c>
-      <c r="I42" s="46"/>
-      <c r="J42" s="46"/>
-      <c r="K42" s="46"/>
-      <c r="L42" s="46"/>
-      <c r="M42" s="46"/>
-      <c r="N42" s="82"/>
-    </row>
-    <row r="43" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="78" t="s">
+      <c r="I42" s="60"/>
+      <c r="J42" s="60"/>
+      <c r="K42" s="60"/>
+      <c r="L42" s="60"/>
+      <c r="M42" s="60"/>
+      <c r="N42" s="84"/>
+    </row>
+    <row r="43" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="80" t="s">
         <v>58</v>
       </c>
-      <c r="B43" s="75"/>
-      <c r="C43" s="79"/>
-      <c r="D43" s="38">
+      <c r="B43" s="77"/>
+      <c r="C43" s="81"/>
+      <c r="D43" s="40">
         <v>3</v>
       </c>
-      <c r="E43" s="39"/>
-      <c r="F43" s="40"/>
-      <c r="G43" s="41"/>
-      <c r="H43" s="81" t="s">
+      <c r="E43" s="41"/>
+      <c r="F43" s="42"/>
+      <c r="G43" s="43"/>
+      <c r="H43" s="83" t="s">
         <v>56</v>
       </c>
-      <c r="I43" s="46"/>
-      <c r="J43" s="46"/>
-      <c r="K43" s="46"/>
-      <c r="L43" s="46"/>
-      <c r="M43" s="46"/>
-      <c r="N43" s="82"/>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A44" s="78" t="s">
+      <c r="I43" s="60"/>
+      <c r="J43" s="60"/>
+      <c r="K43" s="60"/>
+      <c r="L43" s="60"/>
+      <c r="M43" s="60"/>
+      <c r="N43" s="84"/>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A44" s="80" t="s">
         <v>59</v>
       </c>
-      <c r="B44" s="75"/>
-      <c r="C44" s="79"/>
-      <c r="D44" s="87">
+      <c r="B44" s="77"/>
+      <c r="C44" s="81"/>
+      <c r="D44" s="89">
         <f>D42-D43</f>
         <v>100</v>
       </c>
-      <c r="E44" s="88"/>
-      <c r="F44" s="89">
+      <c r="E44" s="90"/>
+      <c r="F44" s="91">
         <f>F42-F43</f>
         <v>150</v>
       </c>
-      <c r="G44" s="89"/>
+      <c r="G44" s="91"/>
       <c r="H44" s="25"/>
       <c r="N44" s="26"/>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="25"/>
       <c r="G45" s="26"/>
       <c r="H45" s="25"/>
       <c r="N45" s="26"/>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="25"/>
-      <c r="B46" s="74" t="s">
+      <c r="B46" s="76" t="s">
         <v>65</v>
       </c>
-      <c r="C46" s="74"/>
-      <c r="D46" s="74"/>
-      <c r="E46" s="74"/>
-      <c r="F46" s="74"/>
+      <c r="C46" s="76"/>
+      <c r="D46" s="76"/>
+      <c r="E46" s="76"/>
+      <c r="F46" s="76"/>
       <c r="G46" s="26"/>
       <c r="H46" s="25"/>
-      <c r="I46" s="74" t="s">
+      <c r="I46" s="76" t="s">
         <v>69</v>
       </c>
-      <c r="J46" s="74"/>
-      <c r="K46" s="74"/>
-      <c r="L46" s="74"/>
-      <c r="M46" s="74"/>
+      <c r="J46" s="76"/>
+      <c r="K46" s="76"/>
+      <c r="L46" s="76"/>
+      <c r="M46" s="76"/>
       <c r="N46" s="26"/>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="20"/>
-      <c r="B47" s="83" t="s">
+      <c r="B47" s="85" t="s">
         <v>66</v>
       </c>
-      <c r="C47" s="83"/>
-      <c r="D47" s="83"/>
-      <c r="E47" s="83"/>
-      <c r="F47" s="83"/>
+      <c r="C47" s="85"/>
+      <c r="D47" s="85"/>
+      <c r="E47" s="85"/>
+      <c r="F47" s="85"/>
       <c r="G47" s="21"/>
       <c r="H47" s="20"/>
-      <c r="I47" s="83" t="s">
+      <c r="I47" s="85" t="s">
         <v>70</v>
       </c>
-      <c r="J47" s="83"/>
-      <c r="K47" s="83"/>
-      <c r="L47" s="83"/>
-      <c r="M47" s="83"/>
+      <c r="J47" s="85"/>
+      <c r="K47" s="85"/>
+      <c r="L47" s="85"/>
+      <c r="M47" s="85"/>
       <c r="N47" s="21"/>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="12" t="s">
         <v>60</v>
       </c>
@@ -6258,84 +7989,84 @@
       <c r="M48" s="13"/>
       <c r="N48" s="15"/>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="25"/>
       <c r="B49" s="16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C49" t="s">
         <v>62</v>
       </c>
-      <c r="I49" s="53"/>
-      <c r="J49" s="53"/>
-      <c r="K49" s="53"/>
-      <c r="L49" s="53"/>
-      <c r="M49" s="53"/>
-      <c r="N49" s="54"/>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="I49" s="63"/>
+      <c r="J49" s="63"/>
+      <c r="K49" s="63"/>
+      <c r="L49" s="63"/>
+      <c r="M49" s="63"/>
+      <c r="N49" s="64"/>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" s="25"/>
       <c r="B50" s="16"/>
       <c r="C50" t="s">
         <v>63</v>
       </c>
-      <c r="I50" s="53"/>
-      <c r="J50" s="53"/>
-      <c r="K50" s="53"/>
-      <c r="L50" s="53"/>
-      <c r="M50" s="53"/>
-      <c r="N50" s="54"/>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="I50" s="63"/>
+      <c r="J50" s="63"/>
+      <c r="K50" s="63"/>
+      <c r="L50" s="63"/>
+      <c r="M50" s="63"/>
+      <c r="N50" s="64"/>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="25"/>
       <c r="B51" s="17"/>
       <c r="C51" t="s">
         <v>64</v>
       </c>
-      <c r="I51" s="53"/>
-      <c r="J51" s="53"/>
-      <c r="K51" s="53"/>
-      <c r="L51" s="53"/>
-      <c r="M51" s="53"/>
-      <c r="N51" s="54"/>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="I51" s="63"/>
+      <c r="J51" s="63"/>
+      <c r="K51" s="63"/>
+      <c r="L51" s="63"/>
+      <c r="M51" s="63"/>
+      <c r="N51" s="64"/>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" s="25"/>
       <c r="N52" s="26"/>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="25"/>
       <c r="N53" s="26"/>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" s="25"/>
       <c r="N54" s="26"/>
     </row>
-    <row r="55" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="25"/>
-      <c r="E55" s="90" t="s">
+      <c r="E55" s="92" t="s">
         <v>69</v>
       </c>
-      <c r="F55" s="90"/>
-      <c r="G55" s="90"/>
-      <c r="H55" s="90"/>
-      <c r="I55" s="90"/>
-      <c r="J55" s="90"/>
+      <c r="F55" s="92"/>
+      <c r="G55" s="92"/>
+      <c r="H55" s="92"/>
+      <c r="I55" s="92"/>
+      <c r="J55" s="92"/>
       <c r="N55" s="26"/>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="25"/>
-      <c r="E56" s="91" t="s">
+      <c r="E56" s="93" t="s">
         <v>70</v>
       </c>
-      <c r="F56" s="91"/>
-      <c r="G56" s="91"/>
-      <c r="H56" s="91"/>
-      <c r="I56" s="91"/>
-      <c r="J56" s="91"/>
+      <c r="F56" s="93"/>
+      <c r="G56" s="93"/>
+      <c r="H56" s="93"/>
+      <c r="I56" s="93"/>
+      <c r="J56" s="93"/>
       <c r="N56" s="26"/>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" s="20"/>
       <c r="B57" s="17"/>
       <c r="C57" s="17"/>
@@ -6358,11 +8089,6 @@
     <mergeCell ref="I51:N51"/>
     <mergeCell ref="E55:J55"/>
     <mergeCell ref="E56:J56"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="B46:F46"/>
     <mergeCell ref="I46:M46"/>
     <mergeCell ref="B47:F47"/>
     <mergeCell ref="I47:M47"/>
@@ -6374,6 +8100,10 @@
     <mergeCell ref="D43:E43"/>
     <mergeCell ref="F43:G43"/>
     <mergeCell ref="H43:N43"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="B46:F46"/>
     <mergeCell ref="I36:M36"/>
     <mergeCell ref="A37:N37"/>
     <mergeCell ref="B39:F39"/>
@@ -6382,12 +8112,13 @@
     <mergeCell ref="D41:E41"/>
     <mergeCell ref="F41:G41"/>
     <mergeCell ref="H41:N41"/>
-    <mergeCell ref="A29:B29"/>
     <mergeCell ref="I29:N29"/>
     <mergeCell ref="A30:F30"/>
     <mergeCell ref="B33:E33"/>
     <mergeCell ref="B35:E35"/>
     <mergeCell ref="I35:M35"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="A29:B29"/>
     <mergeCell ref="B26:G26"/>
     <mergeCell ref="I26:N26"/>
     <mergeCell ref="B27:G27"/>
@@ -6406,11 +8137,8 @@
     <mergeCell ref="H21:N21"/>
     <mergeCell ref="B22:G22"/>
     <mergeCell ref="I22:N22"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="I16:N16"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="I17:N17"/>
-    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="C7:K7"/>
     <mergeCell ref="B19:G19"/>
     <mergeCell ref="I19:N19"/>
     <mergeCell ref="A10:C10"/>
@@ -6419,15 +8147,1036 @@
     <mergeCell ref="L10:N10"/>
     <mergeCell ref="J11:N11"/>
     <mergeCell ref="A13:N13"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="I16:N16"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="I17:N17"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="E2:J2"/>
+    <mergeCell ref="E3:J3"/>
+    <mergeCell ref="E4:J4"/>
+  </mergeCells>
+  <pageMargins left="0.45" right="0.45" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
+  <pageSetup scale="76" orientation="portrait" horizontalDpi="4294967293" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N57"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.42578125" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.85546875" customWidth="1"/>
+    <col min="14" max="14" width="6.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="2"/>
+    </row>
+    <row r="3" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+    </row>
+    <row r="4" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="60"/>
+      <c r="N6" s="60"/>
+    </row>
+    <row r="7" spans="1:14" ht="21" x14ac:dyDescent="0.35">
+      <c r="C7" s="61" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="61"/>
+      <c r="H7" s="61"/>
+      <c r="I7" s="61"/>
+      <c r="J7" s="61"/>
+      <c r="K7" s="61"/>
+      <c r="L7" s="10"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J8" s="11"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="13"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="39"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="J9" s="39"/>
+      <c r="K9" s="39"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="N9" s="15"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="94" t="s">
+        <v>86</v>
+      </c>
+      <c r="B10" s="76"/>
+      <c r="C10" s="76"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="76" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="76"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="76" t="s">
+        <v>73</v>
+      </c>
+      <c r="J10" s="76"/>
+      <c r="K10" s="76"/>
+      <c r="L10" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="M10" s="76"/>
+      <c r="N10" s="95"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="B11" s="13"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="F11" s="13"/>
+      <c r="G11" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="J11" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="K11" s="39"/>
+      <c r="L11" s="39"/>
+      <c r="M11" s="39"/>
+      <c r="N11" s="65"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="20"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="21"/>
+    </row>
+    <row r="13" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A13" s="66" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="67"/>
+      <c r="C13" s="67"/>
+      <c r="D13" s="67"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="67"/>
+      <c r="G13" s="67"/>
+      <c r="H13" s="67"/>
+      <c r="I13" s="67"/>
+      <c r="J13" s="67"/>
+      <c r="K13" s="67"/>
+      <c r="L13" s="67"/>
+      <c r="M13" s="67"/>
+      <c r="N13" s="68"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="24"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="25"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="J15" s="29"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="29"/>
+      <c r="M15" s="29"/>
+      <c r="N15" s="30"/>
+    </row>
+    <row r="16" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="31"/>
+      <c r="B16" s="48" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="48"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="49"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="J16" s="50"/>
+      <c r="K16" s="50"/>
+      <c r="L16" s="50"/>
+      <c r="M16" s="50"/>
+      <c r="N16" s="51"/>
+    </row>
+    <row r="17" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="31"/>
+      <c r="B17" s="48" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="48"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="49"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="50" t="s">
+        <v>93</v>
+      </c>
+      <c r="J17" s="50"/>
+      <c r="K17" s="50"/>
+      <c r="L17" s="50"/>
+      <c r="M17" s="50"/>
+      <c r="N17" s="51"/>
+    </row>
+    <row r="18" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="31"/>
+      <c r="B18" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="48"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="49"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="J18" s="29"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="29"/>
+      <c r="M18" s="29"/>
+      <c r="N18" s="30"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="31"/>
+      <c r="B19" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="48"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="48"/>
+      <c r="G19" s="49"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="50" t="s">
+        <v>25</v>
+      </c>
+      <c r="J19" s="50"/>
+      <c r="K19" s="50"/>
+      <c r="L19" s="50"/>
+      <c r="M19" s="50"/>
+      <c r="N19" s="51"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="31"/>
+      <c r="B20" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="48"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="48"/>
+      <c r="G20" s="49"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="50" t="s">
+        <v>27</v>
+      </c>
+      <c r="J20" s="50"/>
+      <c r="K20" s="50"/>
+      <c r="L20" s="50"/>
+      <c r="M20" s="50"/>
+      <c r="N20" s="51"/>
+    </row>
+    <row r="21" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="31"/>
+      <c r="B21" s="48" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="48"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="48"/>
+      <c r="G21" s="49"/>
+      <c r="H21" s="52" t="s">
+        <v>29</v>
+      </c>
+      <c r="I21" s="53"/>
+      <c r="J21" s="53"/>
+      <c r="K21" s="53"/>
+      <c r="L21" s="53"/>
+      <c r="M21" s="53"/>
+      <c r="N21" s="54"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="31"/>
+      <c r="B22" s="48" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="48"/>
+      <c r="D22" s="48"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="48"/>
+      <c r="G22" s="49"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="55" t="s">
+        <v>31</v>
+      </c>
+      <c r="J22" s="55"/>
+      <c r="K22" s="55"/>
+      <c r="L22" s="55"/>
+      <c r="M22" s="55"/>
+      <c r="N22" s="56"/>
+    </row>
+    <row r="23" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="31"/>
+      <c r="B23" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="48"/>
+      <c r="D23" s="48"/>
+      <c r="E23" s="48"/>
+      <c r="F23" s="48"/>
+      <c r="G23" s="49"/>
+      <c r="H23" s="57" t="s">
+        <v>29</v>
+      </c>
+      <c r="I23" s="58"/>
+      <c r="J23" s="58"/>
+      <c r="K23" s="58"/>
+      <c r="L23" s="58"/>
+      <c r="M23" s="58"/>
+      <c r="N23" s="59"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="31"/>
+      <c r="B24" s="48" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="48"/>
+      <c r="D24" s="48"/>
+      <c r="E24" s="48"/>
+      <c r="F24" s="48"/>
+      <c r="G24" s="49"/>
+      <c r="H24" s="69" t="s">
+        <v>34</v>
+      </c>
+      <c r="I24" s="70"/>
+      <c r="J24" s="70"/>
+      <c r="K24" s="70"/>
+      <c r="L24" s="29"/>
+      <c r="M24" s="29"/>
+      <c r="N24" s="30"/>
+    </row>
+    <row r="25" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="31"/>
+      <c r="B25" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" s="48"/>
+      <c r="D25" s="48"/>
+      <c r="E25" s="48"/>
+      <c r="F25" s="48"/>
+      <c r="G25" s="49"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="J25" s="50"/>
+      <c r="K25" s="50"/>
+      <c r="L25" s="50"/>
+      <c r="M25" s="50"/>
+      <c r="N25" s="51"/>
+    </row>
+    <row r="26" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="31"/>
+      <c r="B26" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26" s="48"/>
+      <c r="D26" s="48"/>
+      <c r="E26" s="48"/>
+      <c r="F26" s="48"/>
+      <c r="G26" s="49"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="50" t="s">
+        <v>38</v>
+      </c>
+      <c r="J26" s="50"/>
+      <c r="K26" s="50"/>
+      <c r="L26" s="50"/>
+      <c r="M26" s="50"/>
+      <c r="N26" s="51"/>
+    </row>
+    <row r="27" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="31"/>
+      <c r="B27" s="48" t="s">
+        <v>88</v>
+      </c>
+      <c r="C27" s="48"/>
+      <c r="D27" s="48"/>
+      <c r="E27" s="48"/>
+      <c r="F27" s="48"/>
+      <c r="G27" s="49"/>
+      <c r="H27" s="71" t="s">
+        <v>40</v>
+      </c>
+      <c r="I27" s="72"/>
+      <c r="J27" s="72"/>
+      <c r="K27" s="72"/>
+      <c r="L27" s="29"/>
+      <c r="M27" s="29"/>
+      <c r="N27" s="30"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="31"/>
+      <c r="B28" s="48" t="s">
+        <v>87</v>
+      </c>
+      <c r="C28" s="48"/>
+      <c r="D28" s="48"/>
+      <c r="E28" s="48"/>
+      <c r="F28" s="48"/>
+      <c r="G28" s="49"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="50" t="s">
+        <v>77</v>
+      </c>
+      <c r="J28" s="50"/>
+      <c r="K28" s="50"/>
+      <c r="L28" s="50"/>
+      <c r="M28" s="50"/>
+      <c r="N28" s="51"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="73" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29" s="74"/>
+      <c r="C29" s="76"/>
+      <c r="D29" s="76"/>
+      <c r="E29" s="76"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="27"/>
+      <c r="I29" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="J29" s="50"/>
+      <c r="K29" s="50"/>
+      <c r="L29" s="50"/>
+      <c r="M29" s="50"/>
+      <c r="N29" s="51"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" s="62"/>
+      <c r="B30" s="63"/>
+      <c r="C30" s="63"/>
+      <c r="D30" s="63"/>
+      <c r="E30" s="63"/>
+      <c r="F30" s="63"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="25"/>
+      <c r="N30" s="26"/>
+    </row>
+    <row r="31" spans="1:14" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="20"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="17"/>
+      <c r="J31" s="17"/>
+      <c r="K31" s="17"/>
+      <c r="L31" s="17"/>
+      <c r="M31" s="17"/>
+      <c r="N31" s="21"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="B32" s="23"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="I32" s="13"/>
+      <c r="J32" s="13"/>
+      <c r="K32" s="13"/>
+      <c r="L32" s="13"/>
+      <c r="M32" s="13"/>
+      <c r="N32" s="15"/>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33" s="25"/>
+      <c r="B33" s="76" t="s">
+        <v>94</v>
+      </c>
+      <c r="C33" s="76"/>
+      <c r="D33" s="76"/>
+      <c r="E33" s="76"/>
+      <c r="I33" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="N33" s="26"/>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A34" s="25"/>
+      <c r="B34" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="I34" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="N34" s="26"/>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A35" s="25"/>
+      <c r="B35" s="75" t="s">
+        <v>96</v>
+      </c>
+      <c r="C35" s="76"/>
+      <c r="D35" s="76"/>
+      <c r="E35" s="76"/>
+      <c r="I35" s="76" t="s">
+        <v>75</v>
+      </c>
+      <c r="J35" s="76"/>
+      <c r="K35" s="76"/>
+      <c r="L35" s="76"/>
+      <c r="M35" s="76"/>
+      <c r="N35" s="26"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A36" s="20"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="17"/>
+      <c r="I36" s="77" t="s">
+        <v>48</v>
+      </c>
+      <c r="J36" s="77"/>
+      <c r="K36" s="77"/>
+      <c r="L36" s="77"/>
+      <c r="M36" s="77"/>
+      <c r="N36" s="21"/>
+    </row>
+    <row r="37" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A37" s="66" t="s">
+        <v>49</v>
+      </c>
+      <c r="B37" s="67"/>
+      <c r="C37" s="67"/>
+      <c r="D37" s="67"/>
+      <c r="E37" s="67"/>
+      <c r="F37" s="67"/>
+      <c r="G37" s="67"/>
+      <c r="H37" s="67"/>
+      <c r="I37" s="67"/>
+      <c r="J37" s="67"/>
+      <c r="K37" s="67"/>
+      <c r="L37" s="67"/>
+      <c r="M37" s="67"/>
+      <c r="N37" s="68"/>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A38" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="B38" s="13"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="15"/>
+      <c r="H38" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="I38" s="13"/>
+      <c r="J38" s="13"/>
+      <c r="K38" s="13"/>
+      <c r="L38" s="13"/>
+      <c r="M38" s="13"/>
+      <c r="N38" s="15"/>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A39" s="25"/>
+      <c r="B39" s="60" t="s">
+        <v>92</v>
+      </c>
+      <c r="C39" s="60"/>
+      <c r="D39" s="60"/>
+      <c r="E39" s="60"/>
+      <c r="F39" s="60"/>
+      <c r="G39" s="26"/>
+      <c r="H39" s="25"/>
+      <c r="I39" t="s">
+        <v>52</v>
+      </c>
+      <c r="N39" s="26"/>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A40" s="25"/>
+      <c r="G40" s="26"/>
+      <c r="H40" s="25"/>
+      <c r="I40" s="78" t="s">
+        <v>53</v>
+      </c>
+      <c r="J40" s="78"/>
+      <c r="K40" s="78"/>
+      <c r="L40" s="78"/>
+      <c r="M40" s="78"/>
+      <c r="N40" s="79"/>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A41" s="80"/>
+      <c r="B41" s="77"/>
+      <c r="C41" s="81"/>
+      <c r="D41" s="82" t="s">
+        <v>54</v>
+      </c>
+      <c r="E41" s="82"/>
+      <c r="F41" s="82" t="s">
+        <v>55</v>
+      </c>
+      <c r="G41" s="82"/>
+      <c r="H41" s="83" t="s">
+        <v>56</v>
+      </c>
+      <c r="I41" s="60"/>
+      <c r="J41" s="60"/>
+      <c r="K41" s="60"/>
+      <c r="L41" s="60"/>
+      <c r="M41" s="60"/>
+      <c r="N41" s="84"/>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A42" s="80" t="s">
+        <v>57</v>
+      </c>
+      <c r="B42" s="77"/>
+      <c r="C42" s="81"/>
+      <c r="D42" s="96">
+        <v>105</v>
+      </c>
+      <c r="E42" s="97"/>
+      <c r="F42" s="98">
+        <v>155</v>
+      </c>
+      <c r="G42" s="98"/>
+      <c r="H42" s="83" t="s">
+        <v>56</v>
+      </c>
+      <c r="I42" s="60"/>
+      <c r="J42" s="60"/>
+      <c r="K42" s="60"/>
+      <c r="L42" s="60"/>
+      <c r="M42" s="60"/>
+      <c r="N42" s="84"/>
+    </row>
+    <row r="43" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="80" t="s">
+        <v>58</v>
+      </c>
+      <c r="B43" s="77"/>
+      <c r="C43" s="81"/>
+      <c r="D43" s="99">
+        <v>5</v>
+      </c>
+      <c r="E43" s="100"/>
+      <c r="F43" s="101"/>
+      <c r="G43" s="102"/>
+      <c r="H43" s="83" t="s">
+        <v>56</v>
+      </c>
+      <c r="I43" s="60"/>
+      <c r="J43" s="60"/>
+      <c r="K43" s="60"/>
+      <c r="L43" s="60"/>
+      <c r="M43" s="60"/>
+      <c r="N43" s="84"/>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A44" s="80" t="s">
+        <v>59</v>
+      </c>
+      <c r="B44" s="77"/>
+      <c r="C44" s="81"/>
+      <c r="D44" s="89">
+        <v>100</v>
+      </c>
+      <c r="E44" s="90"/>
+      <c r="F44" s="91">
+        <v>155</v>
+      </c>
+      <c r="G44" s="91"/>
+      <c r="H44" s="25"/>
+      <c r="N44" s="26"/>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A45" s="25"/>
+      <c r="G45" s="26"/>
+      <c r="H45" s="25"/>
+      <c r="N45" s="26"/>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A46" s="25"/>
+      <c r="B46" s="76" t="s">
+        <v>65</v>
+      </c>
+      <c r="C46" s="76"/>
+      <c r="D46" s="76"/>
+      <c r="E46" s="76"/>
+      <c r="F46" s="76"/>
+      <c r="G46" s="26"/>
+      <c r="H46" s="25"/>
+      <c r="I46" s="76" t="s">
+        <v>69</v>
+      </c>
+      <c r="J46" s="76"/>
+      <c r="K46" s="76"/>
+      <c r="L46" s="76"/>
+      <c r="M46" s="76"/>
+      <c r="N46" s="26"/>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A47" s="20"/>
+      <c r="B47" s="85" t="s">
+        <v>66</v>
+      </c>
+      <c r="C47" s="85"/>
+      <c r="D47" s="85"/>
+      <c r="E47" s="85"/>
+      <c r="F47" s="85"/>
+      <c r="G47" s="21"/>
+      <c r="H47" s="20"/>
+      <c r="I47" s="85" t="s">
+        <v>70</v>
+      </c>
+      <c r="J47" s="85"/>
+      <c r="K47" s="85"/>
+      <c r="L47" s="85"/>
+      <c r="M47" s="85"/>
+      <c r="N47" s="21"/>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A48" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B48" s="13"/>
+      <c r="C48" s="13"/>
+      <c r="D48" s="13"/>
+      <c r="E48" s="13"/>
+      <c r="F48" s="13"/>
+      <c r="G48" s="13"/>
+      <c r="H48" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="I48" s="13"/>
+      <c r="J48" s="13"/>
+      <c r="K48" s="13"/>
+      <c r="L48" s="13"/>
+      <c r="M48" s="13"/>
+      <c r="N48" s="15"/>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A49" s="25"/>
+      <c r="B49" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="C49" t="s">
+        <v>62</v>
+      </c>
+      <c r="I49" s="63"/>
+      <c r="J49" s="63"/>
+      <c r="K49" s="63"/>
+      <c r="L49" s="63"/>
+      <c r="M49" s="63"/>
+      <c r="N49" s="64"/>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A50" s="25"/>
+      <c r="B50" s="16"/>
+      <c r="C50" t="s">
+        <v>63</v>
+      </c>
+      <c r="I50" s="63"/>
+      <c r="J50" s="63"/>
+      <c r="K50" s="63"/>
+      <c r="L50" s="63"/>
+      <c r="M50" s="63"/>
+      <c r="N50" s="64"/>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A51" s="25"/>
+      <c r="B51" s="17"/>
+      <c r="C51" t="s">
+        <v>64</v>
+      </c>
+      <c r="I51" s="63"/>
+      <c r="J51" s="63"/>
+      <c r="K51" s="63"/>
+      <c r="L51" s="63"/>
+      <c r="M51" s="63"/>
+      <c r="N51" s="64"/>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A52" s="25"/>
+      <c r="N52" s="26"/>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A53" s="25"/>
+      <c r="N53" s="26"/>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A54" s="25"/>
+      <c r="N54" s="26"/>
+    </row>
+    <row r="55" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A55" s="25"/>
+      <c r="E55" s="92" t="s">
+        <v>69</v>
+      </c>
+      <c r="F55" s="92"/>
+      <c r="G55" s="92"/>
+      <c r="H55" s="92"/>
+      <c r="I55" s="92"/>
+      <c r="J55" s="92"/>
+      <c r="N55" s="26"/>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A56" s="25"/>
+      <c r="E56" s="93" t="s">
+        <v>70</v>
+      </c>
+      <c r="F56" s="93"/>
+      <c r="G56" s="93"/>
+      <c r="H56" s="93"/>
+      <c r="I56" s="93"/>
+      <c r="J56" s="93"/>
+      <c r="N56" s="26"/>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A57" s="20"/>
+      <c r="B57" s="17"/>
+      <c r="C57" s="17"/>
+      <c r="D57" s="17"/>
+      <c r="E57" s="17"/>
+      <c r="F57" s="17"/>
+      <c r="G57" s="17"/>
+      <c r="H57" s="17"/>
+      <c r="I57" s="17"/>
+      <c r="J57" s="17"/>
+      <c r="K57" s="17"/>
+      <c r="L57" s="17"/>
+      <c r="M57" s="17"/>
+      <c r="N57" s="21"/>
+    </row>
+  </sheetData>
+  <mergeCells count="73">
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="I9:K9"/>
     <mergeCell ref="E2:J2"/>
     <mergeCell ref="E3:J3"/>
     <mergeCell ref="E4:J4"/>
     <mergeCell ref="M6:N6"/>
     <mergeCell ref="C7:K7"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="I19:N19"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="L10:N10"/>
+    <mergeCell ref="J11:N11"/>
+    <mergeCell ref="A13:N13"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="I16:N16"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="I17:N17"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="I20:N20"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="H21:N21"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="I22:N22"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="H23:N23"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="I25:N25"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="I35:M35"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="I26:N26"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="H27:K27"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="I28:N28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="I29:N29"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="I36:M36"/>
+    <mergeCell ref="A37:N37"/>
+    <mergeCell ref="B39:F39"/>
+    <mergeCell ref="I40:N40"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="H41:N41"/>
+    <mergeCell ref="B47:F47"/>
+    <mergeCell ref="I47:M47"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="H42:N42"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="H43:N43"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="B46:F46"/>
+    <mergeCell ref="I46:M46"/>
+    <mergeCell ref="I49:N49"/>
+    <mergeCell ref="I50:N50"/>
+    <mergeCell ref="I51:N51"/>
+    <mergeCell ref="E55:J55"/>
+    <mergeCell ref="E56:J56"/>
   </mergeCells>
-  <pageMargins left="0.45" right="0.45" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
+  <pageMargins left="0.55000000000000004" right="0.45" top="0.35" bottom="0.39" header="0.51" footer="0.3"/>
   <pageSetup scale="76" orientation="portrait" horizontalDpi="4294967293" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
